--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7milVKupqlSZxpeew/ziDIlDX2ttWg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh4g+sw/UYp6VzPyRYY6uUS0vw3WA=="/>
     </ext>
   </extLst>
 </workbook>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -13,8 +13,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh4g+sw/UYp6VzPyRYY6uUS0vw3WA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="nuQbEtWdfN/QHVOxxH/3E9FuDrCunGpap6ZDL4xukc8="/>
     </ext>
   </extLst>
 </workbook>
@@ -4420,7 +4420,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="7" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="20.88"/>
+    <col customWidth="1" min="4" max="4" width="26.63"/>
+    <col customWidth="1" min="5" max="7" width="20.88"/>
     <col customWidth="1" min="10" max="10" width="24.63"/>
     <col customWidth="1" min="11" max="11" width="26.38"/>
     <col customWidth="1" min="15" max="15" width="15.63"/>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -763,7 +763,7 @@
     <t>RO.FOU.001.REC.01</t>
   </si>
   <si>
-    <t>RO.FOU*001*ID_NUMDOC</t>
+    <t>RO.FOU*001A*ID_NUMDOC</t>
   </si>
   <si>
     <t>//div[@id='DVID_NUMDOC']/p/span</t>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -16479,7 +16479,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.88"/>
-    <col customWidth="1" min="2" max="2" width="19.63"/>
+    <col customWidth="1" min="2" max="2" width="25.25"/>
     <col customWidth="1" min="3" max="3" width="25.75"/>
   </cols>
   <sheetData>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="nuQbEtWdfN/QHVOxxH/3E9FuDrCunGpap6ZDL4xukc8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="CITy6/WLNX3NdHlfwR0EtkUKo9oDSe4X1OU8QUUzHfA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="272">
   <si>
     <t>Date</t>
   </si>
@@ -859,30 +859,6 @@
   </si>
   <si>
     <t>$TDGRILLE$4$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>ModifierNote</t>
-  </si>
-  <si>
-    <t>//a[@title='Modifier le mémo']/i</t>
-  </si>
-  <si>
-    <t>frameNote</t>
-  </si>
-  <si>
-    <t>//iframe[@class='cke_wysiwyg_frame cke_reset']</t>
-  </si>
-  <si>
-    <t>textNote</t>
-  </si>
-  <si>
-    <t>//p/span</t>
-  </si>
-  <si>
-    <t>BTN_ValiderEtFermerNote</t>
-  </si>
-  <si>
-    <t>//button[@value='Valider et Fermer']</t>
   </si>
   <si>
     <t>BTN_AjouterAdresse</t>
@@ -1012,7 +988,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,12 +1075,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E7FD"/>
-        <bgColor rgb="FFD9E7FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFEF1CC"/>
         <bgColor rgb="FFFEF1CC"/>
       </patternFill>
@@ -1153,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1330,12 +1300,6 @@
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,7 +1307,7 @@
     <xf borderId="3" fillId="10" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="17" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="16" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -16684,10 +16648,10 @@
       <c r="A10" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>266</v>
       </c>
     </row>
@@ -16713,50 +16677,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>278</v>
-      </c>
-    </row>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -17737,10 +17661,6 @@
     <row r="994" ht="12.75" customHeight="1"/>
     <row r="995" ht="12.75" customHeight="1"/>
     <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -17770,64 +17690,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="54"/>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="276">
   <si>
     <t>Date</t>
   </si>
@@ -877,6 +877,18 @@
   </si>
   <si>
     <t>//div[@id='v-dbtdhtmlxADR']/table/tbody/tr[2]/td[5]</t>
+  </si>
+  <si>
+    <t>ADR_divActive</t>
+  </si>
+  <si>
+    <t>//div[@class='dhxwin_active']</t>
+  </si>
+  <si>
+    <t>ADR_divInactive</t>
+  </si>
+  <si>
+    <t>//div[@class='dhxwin_inactive']</t>
   </si>
   <si>
     <t>Champ</t>
@@ -988,7 +1000,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,6 +1093,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB3CEFB"/>
+        <bgColor rgb="FFB3CEFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
       </patternFill>
@@ -1123,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1300,6 +1318,9 @@
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,7 +1328,7 @@
     <xf borderId="3" fillId="10" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="16" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="17" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -16677,8 +16698,28 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>274</v>
+      </c>
+    </row>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -17690,64 +17731,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
     </row>
     <row r="2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="69"/>
     </row>
     <row r="4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="54"/>

--- a/TNR_JDD/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/JDD.RO.FOU.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="CITy6/WLNX3NdHlfwR0EtkUKo9oDSe4X1OU8QUUzHfA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="45VRt3qg8OCGevgJM1Nk0QU9pDraX/JrZSIi27EC3X8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="272">
   <si>
     <t>Date</t>
   </si>
@@ -877,18 +877,6 @@
   </si>
   <si>
     <t>//div[@id='v-dbtdhtmlxADR']/table/tbody/tr[2]/td[5]</t>
-  </si>
-  <si>
-    <t>ADR_divActive</t>
-  </si>
-  <si>
-    <t>//div[@class='dhxwin_active']</t>
-  </si>
-  <si>
-    <t>ADR_divInactive</t>
-  </si>
-  <si>
-    <t>//div[@class='dhxwin_inactive']</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1000,7 +988,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,12 +1081,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB3CEFB"/>
-        <bgColor rgb="FFB3CEFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
       </patternFill>
@@ -1141,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1318,9 +1300,6 @@
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,7 +1307,7 @@
     <xf borderId="3" fillId="10" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="17" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="16" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -5079,7 +5058,7 @@
         <v>194</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="AQ7" s="48" t="s">
         <v>199</v>
@@ -16698,28 +16677,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>274</v>
-      </c>
-    </row>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -17699,9 +17658,6 @@
     <row r="991" ht="12.75" customHeight="1"/>
     <row r="992" ht="12.75" customHeight="1"/>
     <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -17731,64 +17687,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="54"/>
